--- a/spreadsheets/surveys.xlsx
+++ b/spreadsheets/surveys.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Surveys" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Surveys1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2222,2222 +2221,6 @@
           <t>Driver Distraction: A Review of the Current State-of-Knowledge</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2007_T-ITS_Trivedi</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Looking-In and Looking-Out of a Vehicle: Computer-Vision-Based Enhanced Vehicle Safety</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2007_DistractedDriving_Young</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Driver distraction: A review of the literature</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Distracted driving</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2007_AnnRevNeurosci_Knudsen</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fundamental Components of Attention</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Annual Review Neuroscience</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2006_WCICA_Wang</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Driver Fatigue Detection: A Survey</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>World Congress on Intelligent Control</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2005_EBR_Brown</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Peripheral vision for perception and action</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Experimental Brain Research</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2004_Horswill.doc</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Driver’s Hazard Perception Ability: Situation Awareness on the Road</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Cognitive Approach to Situation Awareness</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2002_Green</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Where do Drivers Look While Driving (and for How Long)?</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Human Factors in Traffic Safety</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>gaze measures</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2000_RAS_Bertozzi</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Vision-based intelligent vehicles: State of the art and perspectives</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Robotics and Autonomous Systems</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>1999_JSafRes_Deery</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Hazard and Risk Perception among Young Novice Drivers</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Journal of Safety Research</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>driving experience, hazard perception</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1998_Elsevier_Crundall</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>How Much Do Novice Drivers See? The Effects of Demand on Visual Search Strategies in Novice and Experienced Drivers</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Eye guidance in reading and scene perception</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>driving experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>1992_PsychBulletin_Christianson</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Emotional Stress and Eyewitness Memory: A Critical Review</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Psychological Bulletin</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>emotion</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>1992_PP_Warren</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>The role of central and peripheral vision in perceiving the direction of self-motion</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Perception &amp; Psychophysics</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>1991_JOSA_Banks</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Peripheral spatial vision: limits imposed by optics, photoreceptors, and receptor pooling</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Journal of Optical Society of America </t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>1987_JOSA_Legge</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Contrast discrimination in peripheral vision</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Journal of Optical Society of America </t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>1986_VR_Johnston</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Matching velocity in central and peripheral vision</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>1972_ARRB_Rockwell</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Eye movement analysis of visual information acquisition in driving: an overview</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>ARRB Proceedings</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>eye trackers</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Venue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2021_BRM_Jansen</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Does agreement mean accuracy? Evaluating glance annotation in naturalistic driving data</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Behavior Research Methods</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>annotation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020_IJITSR_Doudou</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Driver Drowsiness Measurement Technologies: Current Research, Market Solutions, and Challenges</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>International Journal of Intelligent Transportation Systems Research</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020_HumanFactors_Weaver</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A Systematic Review and Meta-Analysis of Takeover Performance During Conditionally Automated Driving</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019_VisionResearch_Hooge</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Do pupil-based binocular video eye trackers reliably measure vergence?</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>eye trackers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019_TR_OviedoTrespalacios</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The impact of road advertising signs on driver behaviour and implications for road safety: A critical systematic review</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Transportaion Research Part A</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>environment, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019_T-ITS_Khatib</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Driver Inattention Detection in the Context of Next-Generation Autonomous Vehicles Design: A Survey</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness, distraction, automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019_SafetyScience_Wynne</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Systematic review of driving simulator validation studies</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>driving simulators</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019_JEMR_Ojstersek</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Eye tracking use in researching driver distraction: A scientometric and qualitative literature review approach</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Journal of Eye Movement Research</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019_AccidentAnalysis_Robbins</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>How does drivers’visual search change as a function of experience? Asystematic review and meta-analysis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>driving experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2018_TIES_Parnell</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Where are we on driver distraction? Methods, approaches and recommendations</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2018_T-ITS_Sikander</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Driver Fatigue Detection Systems: A Review</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018_PTB_Odegaard</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Inflation versus filling-in: why we feel we see more than we actually do in peripheral vision</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Philosophical transactions of Royal Society B</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2018_HumanFactors_Caird</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Does Talking on a Cell Phone, With a Passenger, or Dialing Affect Driving Performance? An Updated Systematic Review and Meta-Analysis of Experimental Studies</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2017_JoV_Loschky</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Scene perception from central to peripheral vision</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2017_ITS_Yin</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>When to use what data set for your self-driving car algorithm: An overview of publicly available driving datasets</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>datasets</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2017_IET_Cunningham</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Driver distraction and inattention in the realm of automated driving</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>IET Intelligent Transport Systems</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>distraction, automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2017_IEEEAccess_Kar</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A Review and Analysis of Eye-Gaze Estimation Systems, Algorithms and Performance Evaluation Methods in Consumer Platforms</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>IEEE Access</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>gaze estimation</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2017_CGF_Blascheck</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Visualization of Eye Tracking Data: A Taxonomy and Survey</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Computer Graphics Forum</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>gaze visualization</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017_AppliedErgonomics_Wolfe</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>More than the Useful Field: Considering peripheral vision in driving</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Applied Ergonomics</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2017_AppHumanFactors_Naujoks</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>A review of non-driving-related tasks used in studies on automated driving</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Advances in Human Aspects of Transportation</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2016_VisionResearch_Poletti</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>A compact field guide to the study of microsaccades: Challenges and functions</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>microsaccades</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2016_TVT_Koesdwiady</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Recent Trends in Driver Safety Monitoring Systems: State of the Art and Challenges</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Transactions on Vehicular Technology</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, fatigue, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2016_TR_OviedoTrespalacios</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Understanding the impacts of mobile phone distraction on driving performance: A systematic review</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Transportation Research Part C</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2016_TR_Lu</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Human factors of transitions in automated driving: A general framework and literature survey</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2016_TIV_Ohn-Bar</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Looking at Humans in the Age of Self-Driving and Highly Automated Vehicles</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, driver awareness</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2016_TheorIssErgonSci_Lenne</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Predicting drowsiness-related driving events: a review of recent research methods and future opportunities</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2016_SJOVS_Thorslund</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Vision measurability and its impact on safe driving – a literature review</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SJOVS</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>visual capabilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2016_SigProcMag_Aghaei</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Smart Driver Monitoring: When Signal Processing Meets Human Factors</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Signal Processing Magazine</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2016_JoV_Boucart</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Finding faces, animals, and vehicles in far peripheral vision</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2016_iPerception_Baldwin</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>The perceived size and shape of objects in peripheral vision</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>I-Perception</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2016_HumanFactorsErgonomics_Funke</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Which eye tracker is right for your research? Performance evaluation of several cost variant eye trackers</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Proceedings of Human Factors and Ergonomics Society</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>eye trackers</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2016_AnnRevVisScience_Rosenholtz</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Capabilities and Limitations of Peripheral Vision</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Annual Reviews of Vision Science</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2015_TrafficInjuryPrevention_Decker</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>The Impact of Billboards on Driver Visual Behavior: A Systematic Literature Review</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Traffic Injury Prevention</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2015_TR_Victor</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Analysis of Naturalistic Driving Study Data: Safer Glances, Driver Inattention, and Crash Risk</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>TRID</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2015_T-ITS_Kaplan</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Driver Behavior Analysis for Safe Driving: A Survey</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>drowsiness, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2014_TransRes_Winter</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Effects of adaptive cruise control and highly automated driving on workload and situation awareness: A review of the empirical evidence</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>automation, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2014_THMS_Ho</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>To What Extent do the Findings of Laboratory-Based Spatial Attention Research Apply to the Real-World Setting of Driving?</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>IEEE Transactions on Human-Machine Systems</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2014_SMR_Dawson</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Look before you (s)leep: Evaluating the use of fatigue detection technologies within a fatigue risk management system for the road transport industry</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sleep Medicine Reviews</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>state: drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2014_MITS_Bengler</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Three Decades of Driver Assistance Systems</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ITS Magazine</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>automation</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2014_JoV_Lappi</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Future path and tangent point models in the visual control of locomotion in curve driving</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>visuomotor coordination</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2014_CurrDrivAbuseRev_Shiferaw</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Drivers’ Visual Scanning Impairment Under the Influences of Alcohol and Distraction: A Literature Review</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Current Drug Abuse Reviews</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>alcohol, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2014_CB_Hayhoe</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Modeling Task Control of Eye Movements</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Current Biology</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>task-based attention</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2014_AJPH_Ferdinand</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Associations Between Driving Performance and Engaging in Secondary Tasks: A Systematic Review</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>American Journal of Public Health</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2014_AAAM_Regan</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Towards an Understanding of Driver Inattention: Taxonomy and Theory</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Annals of Advances in Automotive Medicine</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>intattention, taxonomy</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2013_TRP_Gruber</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Vision and Night Driving Abilities of Elderly Drivers</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Traffic Injury Prevention</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>age, visibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2013_TR_Lee_1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Distraction Detection Algorithm Evaluation</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>NHTSA</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2013_TR_Lee</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Distraction Detection and Mitigation Through Driver Feedback</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Technical Report</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2013_ICCVW_Kang</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Various Approaches for Driver and Driving Behavior Monitoring: A Review</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ICCVW</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2013_AccidentAnalysis_Taylor</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>The view from the road: The contribution of on-road glance-monitoring technologies to understanding driver behavior</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2012_VR_Traschulz</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Speed change detection in foveal and peripheral vision</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2012_SafetyScience_Young</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Examining the relationship between driver distraction and driving errors: A discussion of theory, studies and methods</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2011_WIR_Jensen</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Change blindness and inattentional blindness</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Wiley Interdisciplinary Reviews: Cognitive Science</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>awareness, distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2011_VAH_Tran</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Vision for Driver Assistance: Looking at People in a Vehicle</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Visual Analysis of Humans</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2011_TransRes_Underwood</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Driving simulator validation with hazard perception</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2011_TIES_Salmon</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Situation awareness on the road: review, theoretical and methodological issues, and future directions</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2011_T-ITS_Dong</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Driver Inattention Monitoring System for Intelligent Vehicles: A Review</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2011_JoV_Strasburger</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Peripheral vision and pattern recognition: A review</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2011_ITSC_Doshi</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Tactical Driver Behavior Prediction and Intent Inference: A Review</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>driver monitoring, action prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2011_HandbookTrafficPsych_Crundall</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Visual Attention While Driving: Measures of Eye Movements Used in Driving Research</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Handbook of Traffic Psychology</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>gaze measures</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2011_AccidentAnalysis_Regan</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Driver distraction and driver inattention: Definition, relationship and taxonomy</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>intattention, taxonomy</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2010_VisionResearch_Owsley</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Vision and driving</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>visual capabilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2010_TransApplPerc_Frintrop</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Computational Visual Attention Systems and Their Cognitive Foundations: A Survey</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ACM Transactions on Applied Perception</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2010_HumanFactors_Parasuraman</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Complacency and Bias in Human Use of Automation: An Attentional Integration</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>automation, trust</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2010_Ergonomics_Collet1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Phoning while driving I: a review of epidemiological, psychological, behavioural and physiological studies</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Ergonomics</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2010_Ergonomics_Collet</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Phoning while driving II: a review of driving conditions influence</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Ergonomics</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2010_CurrOpNeurobiology_Boudoost</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Top-down control of visual attention</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Current Opinion in Neurobiology</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>task-based attention</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2010_ActaPsych_Theeuwes</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Top–down and bottom–up control of visual selection</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Acta Psychologica</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2009_JoV_Hansen</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Color perception in the intermediate periphery of the visual field</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2009_DriverDistraction_Victor</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Distraction Assessment Methods Based on Visual Behavior and Event Detection</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Driver Distraction: Theory, Effects, and Mitigation</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>distraction</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2009_CurrentBiology_Levi</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Crowding in peripheral vision: why bigger is better</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Current Biology</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2008_TR_Ranney</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Driver Distraction: A Review of the Current State-of-Knowledge</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
         <v>2008</v>

--- a/spreadsheets/surveys.xlsx
+++ b/spreadsheets/surveys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Reference link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Topic</t>
         </is>
@@ -463,73 +468,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021_BRM_Jansen</t>
+          <t>https://doi.org/10.1016/j.ijpsycho.2021.03.003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Does agreement mean accuracy? Evaluating glance annotation in naturalistic driving data</t>
+          <t>2021_IJPsych_deWinter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Behavior Research Methods</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>Replicating five pupillometry studies of Eckhard Hess</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>International Journal of Psychophysiology</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>annotation</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>gaze measures</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020_IJITSR_Doudou</t>
+          <t>https://doi.org/10.1016/B978-0-08-102671-7.10665-7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Driver Drowsiness Measurement Technologies: Current Research, Market Solutions, and Challenges</t>
+          <t>2021_IET_deWinter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>International Journal of Intelligent Transportation Systems Research</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
+          <t>Pitfalls of Statistical Methods in Traffic Psychology</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IET</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>statistical analysis</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020_HumanFactors_Weaver</t>
+          <t>https://doi.org/10.3389/fpsyg.2021.631364</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Systematic Review and Meta-Analysis of Takeover Performance During Conditionally Automated Driving</t>
+          <t>2021_FrontPsychol_McWilliams</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>Underload on the Road: Measuring Vigilance Decrements During Partially Automated Driving</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Frontiers in Psychology</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>automation</t>
         </is>
@@ -538,448 +558,538 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019_VisionResearch_Hooge</t>
+          <t>https://doi.org/10.3758/s13428-020-01446-9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Do pupil-based binocular video eye trackers reliably measure vergence?</t>
+          <t>2021_BRM_Jansen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>eye trackers</t>
+          <t>Does agreement mean accuracy? Evaluating glance annotation in naturalistic driving data</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Behavior Research Methods</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>annotation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019_TR_OviedoTrespalacios</t>
+          <t>https://doi.org/10.1109/TITS.2020.2977762</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The impact of road advertising signs on driver behaviour and implications for road safety: A critical systematic review</t>
+          <t>2020_T-ITS_Nemcova</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Transportaion Research Part A</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>environment, distraction</t>
+          <t>Multimodal Features for Detection of Driver Stress and Fatigue: Review</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>driver monitoring, fatigue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019_T-ITS_Khatib</t>
+          <t>https://doi.org/10.2352/ISSN.2470-1173.2020.9.IQSP-288</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Driver Inattention Detection in the Context of Next-Generation Autonomous Vehicles Design: A Survey</t>
+          <t>2020_IQSP_Jogeshwar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness, distraction, automation</t>
+          <t>The cone model: Recognizing gaze uncertainty in virtual environments</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Image Quality and System Performance</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>eye tracking, 3D gaze data analysis</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019_SafetyScience_Wynne</t>
+          <t>https://doi.org/10.1007/s13177-019-00199-w</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Systematic review of driving simulator validation studies</t>
+          <t>2020_IJITSR_Doudou</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>driving simulators</t>
+          <t>Driver Drowsiness Measurement Technologies: Current Research, Market Solutions, and Challenges</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>International Journal of Intelligent Transportation Systems Research</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>driver monitoring, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019_JEMR_Ojstersek</t>
+          <t>https://doi.org/10.1177%2F0018720820976476</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eye tracking use in researching driver distraction: A scientometric and qualitative literature review approach</t>
+          <t>2020_HumanFactors_Weaver</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Journal of Eye Movement Research</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>A Systematic Review and Meta-Analysis of Takeover Performance During Conditionally Automated Driving</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>automation</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019_AccidentAnalysis_Robbins</t>
+          <t>https://doi.org/10.3390/geriatrics5020036</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>How does drivers’visual search change as a function of experience? Asystematic review and meta-analysis</t>
+          <t>2020_Geriatrics_Carr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>driving experience</t>
+          <t>The Role of Eye Tracking Technology in Assessing Older Driver Safety</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Geriatrics</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>eye trackers, safety, older drivers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018_TIES_Parnell</t>
+          <t>https://doi.org/10.3758/s13428-019-01307-0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Where are we on driver distraction? Methods, approaches and recommendations</t>
+          <t>2020_BRM_Niehorster1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
+          <t>The impact of slippage on the data quality of head-worn eye trackers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Behavior Research Methods</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>eye trackers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018_T-ITS_Sikander</t>
+          <t>https://doi.org/10.3758/s13428-020-01414-3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Driver Fatigue Detection Systems: A Review</t>
+          <t>2020_BRM_Niehorster</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
+          <t>Is apparent fixational drift in eye-tracking data due to filters or eyeball rotation?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Behavior Research Methods</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>eye trackers, drift, microsaccades</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018_PTB_Odegaard</t>
+          <t>https://doi.org/10.1016/j.visres.2019.01.004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inflation versus filling-in: why we feel we see more than we actually do in peripheral vision</t>
+          <t>2019_VisionResearch_Hooge</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Philosophical transactions of Royal Society B</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Do pupil-based binocular video eye trackers reliably measure vergence?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vision Research</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>eye trackers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2018_HumanFactors_Caird</t>
+          <t>https://doi.org/10.1016/j.tra.2019.01.012</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Does Talking on a Cell Phone, With a Passenger, or Dialing Affect Driving Performance? An Updated Systematic Review and Meta-Analysis of Experimental Studies</t>
+          <t>2019_TR_OviedoTrespalacios</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>The impact of road advertising signs on driver behaviour and implications for road safety: A critical systematic review</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Transportaion Research Part A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>environment, distraction</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2017_JoV_Loschky</t>
+          <t>https://doi.org/10.1109/TITS.2019.2940874</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scene perception from central to peripheral vision</t>
+          <t>2019_T-ITS_Khatib</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Driver Inattention Detection in the Context of Next-Generation Autonomous Vehicles Design: A Survey</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>driver monitoring, drowsiness, distraction, automation</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017_ITS_Yin</t>
+          <t>https://doi.org/10.1016/j.ssci.2019.04.004</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>When to use what data set for your self-driving car algorithm: An overview of publicly available driving datasets</t>
+          <t>2019_SafetyScience_Wynne</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>datasets</t>
+          <t>Systematic review of driving simulator validation studies</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Safety Science</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>driving simulators</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2017_IET_Cunningham</t>
+          <t>https://doi.org/10.16910/jemr.12.3.5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Driver distraction and inattention in the realm of automated driving</t>
+          <t>2019_JEMR_Ojstersek</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IET Intelligent Transport Systems</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>distraction, automation</t>
+          <t>Eye tracking use in researching driver distraction: A scientometric and qualitative literature review approach</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Journal of Eye Movement Research</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2017_IEEEAccess_Kar</t>
+          <t>https://doi.org/10.1016/j.aap.2019.105266</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A Review and Analysis of Eye-Gaze Estimation Systems, Algorithms and Performance Evaluation Methods in Consumer Platforms</t>
+          <t>2019_AccidentAnalysis_Robbins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>gaze estimation</t>
+          <t>How does drivers’visual search change as a function of experience? Asystematic review and meta-analysis</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Accident Analysis and Prevention</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>driving experience</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017_CGF_Blascheck</t>
+          <t>https://doi.org/10.1080/1463922X.2017.1414333</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Visualization of Eye Tracking Data: A Taxonomy and Survey</t>
+          <t>2018_TIES_Parnell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Computer Graphics Forum</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>gaze visualization</t>
+          <t>Where are we on driver distraction? Methods, approaches and recommendations</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Theoretical Issues in Ergonomics Science</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2017_AppliedErgonomics_Wolfe</t>
+          <t>https://doi.org/10.1109/TITS.2018.2868499</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>More than the Useful Field: Considering peripheral vision in driving</t>
+          <t>2018_T-ITS_Sikander</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Applied Ergonomics</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Driver Fatigue Detection Systems: A Review</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>driver monitoring, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2017_AppHumanFactors_Naujoks</t>
+          <t>https://doi.org/10.1098/rstb.2017.0345</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A review of non-driving-related tasks used in studies on automated driving</t>
+          <t>2018_PTB_Odegaard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Advances in Human Aspects of Transportation</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Inflation versus filling-in: why we feel we see more than we actually do in peripheral vision</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Philosophical transactions of Royal Society B</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2016_VisionResearch_Poletti</t>
+          <t>https://dx.doi.org/10.16910%2Fjemr.12.6.2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A compact field guide to the study of microsaccades: Challenges and functions</t>
+          <t>2018_JEMR_Krueger</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E22" t="inlineStr">
+          <t>Microsaccades Distinguish Looking From Seeing</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Journal of Eye Movement Research</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>microsaccades</t>
         </is>
@@ -988,548 +1098,658 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2016_TVT_Koesdwiady</t>
+          <t>https://doi.org/10.1177/0018720817748145</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Recent Trends in Driver Safety Monitoring Systems: State of the Art and Challenges</t>
+          <t>2018_HumanFactors_Caird</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Transactions on Vehicular Technology</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, fatigue, drowsiness</t>
+          <t>Does Talking on a Cell Phone, With a Passenger, or Dialing Affect Driving Performance? An Updated Systematic Review and Meta-Analysis of Experimental Studies</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2016_TR_OviedoTrespalacios</t>
+          <t>https://doi.org/10.1167/17.1.6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Understanding the impacts of mobile phone distraction on driving performance: A systematic review</t>
+          <t>2017_JoV_Loschky</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Transportation Research Part C</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Scene perception from central to peripheral vision</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Journal of Vision</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2016_TR_Lu</t>
+          <t>https://doi.org/10.1109/ITSC.2017.8317828</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Human factors of transitions in automated driving: A general framework and literature survey</t>
+          <t>2017_ITS_Yin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>automation</t>
+          <t>When to use what data set for your self-driving car algorithm: An overview of publicly available driving datasets</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>datasets</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2016_TIV_Ohn-Bar</t>
+          <t>https://doi.org/10.1049/iet-its.2017.0232</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Looking at Humans in the Age of Self-Driving and Highly Automated Vehicles</t>
+          <t>2017_IET_Cunningham</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, driver awareness</t>
+          <t>Driver distraction and inattention in the realm of automated driving</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>IET Intelligent Transport Systems</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>distraction, automation</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2016_TheorIssErgonSci_Lenne</t>
+          <t>https://doi.org/10.1109/ACCESS.2017.2735633</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Predicting drowsiness-related driving events: a review of recent research methods and future opportunities</t>
+          <t>2017_IEEEAccess_Kar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>drowsiness</t>
+          <t>A Review and Analysis of Eye-Gaze Estimation Systems, Algorithms and Performance Evaluation Methods in Consumer Platforms</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>gaze estimation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2016_SJOVS_Thorslund</t>
+          <t>https://doi.org/10.1111/cgf.13079</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vision measurability and its impact on safe driving – a literature review</t>
+          <t>2017_CGF_Blascheck</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SJOVS</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>visual capabilities</t>
+          <t>Visualization of Eye Tracking Data: A Taxonomy and Survey</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Computer Graphics Forum</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>gaze visualization</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2016_SigProcMag_Aghaei</t>
+          <t>https://doi.org/10.1016/j.apergo.2017.07.009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Smart Driver Monitoring: When Signal Processing Meets Human Factors</t>
+          <t>2017_AppliedErgonomics_Wolfe</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Signal Processing Magazine</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
+          <t>More than the Useful Field: Considering peripheral vision in driving</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Applied Ergonomics</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2016_JoV_Boucart</t>
+          <t>https://doi.org/10.1007/978-3-319-60441-1_52</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Finding faces, animals, and vehicles in far peripheral vision</t>
+          <t>2017_AppHumanFactors_Naujoks</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>A review of non-driving-related tasks used in studies on automated driving</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Advances in Human Aspects of Transportation</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2016_iPerception_Baldwin</t>
+          <t>https://doi.org/10.1016/j.visres.2015.01.018</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The perceived size and shape of objects in peripheral vision</t>
+          <t>2016_VisionResearch_Poletti</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I-Perception</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+          <t>A compact field guide to the study of microsaccades: Challenges and functions</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vision Research</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>2016</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>microsaccades</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2016_HumanFactorsErgonomics_Funke</t>
+          <t>https://doi.org/10.1109/TVT.2016.2631604</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Which eye tracker is right for your research? Performance evaluation of several cost variant eye trackers</t>
+          <t>2016_TVT_Koesdwiady</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Proceedings of Human Factors and Ergonomics Society</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+          <t>Recent Trends in Driver Safety Monitoring Systems: State of the Art and Challenges</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Transactions on Vehicular Technology</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>2016</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>eye trackers</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, fatigue, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2016_AnnRevVisScience_Rosenholtz</t>
+          <t>https://doi.org/10.1016/j.trc.2016.10.006</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Capabilities and Limitations of Peripheral Vision</t>
+          <t>2016_TR_OviedoTrespalacios</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Annual Reviews of Vision Science</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+          <t>Understanding the impacts of mobile phone distraction on driving performance: A systematic review</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Transportation Research Part C</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>2016</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2015_TrafficInjuryPrevention_Decker</t>
+          <t>https://doi.org/10.1016/j.trf.2016.10.007</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Impact of Billboards on Driver Visual Behavior: A Systematic Literature Review</t>
+          <t>2016_TR_Lu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Traffic Injury Prevention</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Human factors of transitions in automated driving: A general framework and literature survey</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Transportation Research Part F</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>automation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2015_TR_Victor</t>
+          <t>https://doi.org/10.1109/TIV.2016.2571067</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analysis of Naturalistic Driving Study Data: Safer Glances, Driver Inattention, and Crash Risk</t>
+          <t>2016_TIV_Ohn-Bar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TRID</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Looking at Humans in the Age of Self-Driving and Highly Automated Vehicles</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, driver awareness</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2015_T-ITS_Kaplan</t>
+          <t>https://doi.org/10.1080/1463922X.2016.1155239</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Driver Behavior Analysis for Safe Driving: A Survey</t>
+          <t>2016_TheorIssErgonSci_Lenne</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>drowsiness, distraction</t>
+          <t>Predicting drowsiness-related driving events: a review of recent research methods and future opportunities</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Theoretical Issues in Ergonomics Science</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>drowsiness</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2014_TransRes_Winter</t>
+          <t>https://doi.org/10.5384/sjovs.vol9i1p%25p</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Effects of adaptive cruise control and highly automated driving on workload and situation awareness: A review of the empirical evidence</t>
+          <t>2016_SJOVS_Thorslund</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>automation, distraction</t>
+          <t>Vision measurability and its impact on safe driving – a literature review</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SJOVS</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>visual capabilities</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2014_THMS_Ho</t>
+          <t>https://doi.org/10.1109/MSP.2016.2602379</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>To What Extent do the Findings of Laboratory-Based Spatial Attention Research Apply to the Real-World Setting of Driving?</t>
+          <t>2016_SigProcMag_Aghaei</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Human-Machine Systems</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>validation</t>
+          <t>Smart Driver Monitoring: When Signal Processing Meets Human Factors</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Signal Processing Magazine</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2014_SMR_Dawson</t>
+          <t>https://doi.org/10.1167/16.2.10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Look before you (s)leep: Evaluating the use of fatigue detection technologies within a fatigue risk management system for the road transport industry</t>
+          <t>2016_JoV_Boucart</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sleep Medicine Reviews</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>state: drowsiness</t>
+          <t>Finding faces, animals, and vehicles in far peripheral vision</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Journal of Vision</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2014_MITS_Bengler</t>
+          <t>https://doi.org/10.1177/2041669516661900</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Three Decades of Driver Assistance Systems</t>
+          <t>2016_iPerception_Baldwin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ITS Magazine</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>automation</t>
+          <t>The perceived size and shape of objects in peripheral vision</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>I-Perception</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2014_JoV_Lappi</t>
+          <t>https://doi.org/10.1177%2F1541931213601289</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Future path and tangent point models in the visual control of locomotion in curve driving</t>
+          <t>2016_HumanFactorsErgonomics_Funke</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>visuomotor coordination</t>
+          <t>Which eye tracker is right for your research? Performance evaluation of several cost variant eye trackers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Proceedings of Human Factors and Ergonomics Society</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>eye trackers</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2014_CurrDrivAbuseRev_Shiferaw</t>
+          <t>https://doi.org/10.1146/annurev-vision-082114-035733</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drivers’ Visual Scanning Impairment Under the Influences of Alcohol and Distraction: A Literature Review</t>
+          <t>2016_AnnRevVisScience_Rosenholtz</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Current Drug Abuse Reviews</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>alcohol, distraction</t>
+          <t>Capabilities and Limitations of Peripheral Vision</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Annual Reviews of Vision Science</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2014_CB_Hayhoe</t>
+          <t>https://doi.org/10.1080/15389588.2014.936407</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modeling Task Control of Eye Movements</t>
+          <t>2015_TrafficInjuryPrevention_Decker</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Current Biology</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>task-based attention</t>
+          <t>The Impact of Billboards on Driver Visual Behavior: A Systematic Literature Review</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Traffic Injury Prevention</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2014_AJPH_Ferdinand</t>
+          <t>http://www.trb.org/Main/Blurbs/171327.aspx</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Associations Between Driving Performance and Engaging in Secondary Tasks: A Systematic Review</t>
+          <t>2015_TR_Victor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>American Journal of Public Health</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E44" t="inlineStr">
+          <t>Analysis of Naturalistic Driving Study Data: Safer Glances, Driver Inattention, and Crash Risk</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TRID</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>distraction</t>
         </is>
@@ -1538,744 +1758,898 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2014_AAAM_Regan</t>
+          <t>https://doi.org/10.1109/TITS.2015.2462084</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Towards an Understanding of Driver Inattention: Taxonomy and Theory</t>
+          <t>2015_T-ITS_Kaplan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Annals of Advances in Automotive Medicine</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>intattention, taxonomy</t>
+          <t>Driver Behavior Analysis for Safe Driving: A Survey</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>drowsiness, distraction</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2013_TRP_Gruber</t>
+          <t>https://doi.org/10.1016/j.trf.2014.06.016</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vision and Night Driving Abilities of Elderly Drivers</t>
+          <t>2014_TransRes_Winter</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Traffic Injury Prevention</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>age, visibility</t>
+          <t>Effects of adaptive cruise control and highly automated driving on workload and situation awareness: A review of the empirical evidence</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Transportation Research Part F</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>automation, distraction</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2013_TR_Lee_1</t>
+          <t>https://doi.org/10.1109/THMS.2014.2316502</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Distraction Detection Algorithm Evaluation</t>
+          <t>2014_THMS_Ho</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NHTSA</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
+          <t>To What Extent do the Findings of Laboratory-Based Spatial Attention Research Apply to the Real-World Setting of Driving?</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Human-Machine Systems</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>validation</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2013_TR_Lee</t>
+          <t>https://doi.org/10.1016/j.smrv.2013.03.003</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Distraction Detection and Mitigation Through Driver Feedback</t>
+          <t>2014_SMR_Dawson</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Technical Report</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
+          <t>Look before you (s)leep: Evaluating the use of fatigue detection technologies within a fatigue risk management system for the road transport industry</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sleep Medicine Reviews</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>state: drowsiness</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2013_ICCVW_Kang</t>
+          <t>https://doi.org/10.1109/MITS.2014.2336271</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Various Approaches for Driver and Driving Behavior Monitoring: A Review</t>
+          <t>2014_MITS_Bengler</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ICCVW</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
+          <t>Three Decades of Driver Assistance Systems</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ITS Magazine</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>automation</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2013_AccidentAnalysis_Taylor</t>
+          <t>https://doi.org/10.1167/14.12.21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The view from the road: The contribution of on-road glance-monitoring technologies to understanding driver behavior</t>
+          <t>2014_JoV_Lappi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction</t>
+          <t>Future path and tangent point models in the visual control of locomotion in curve driving</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Journal of Vision</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>visuomotor coordination</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2012_VR_Traschulz</t>
+          <t>https://doi.org/10.2174/1874473708666150107143813</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Speed change detection in foveal and peripheral vision</t>
+          <t>2014_CurrDrivAbuseRev_Shiferaw</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Drivers’ Visual Scanning Impairment Under the Influences of Alcohol and Distraction: A Literature Review</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Current Drug Abuse Reviews</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>alcohol, distraction</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2012_SafetyScience_Young</t>
+          <t>https://dx.doi.org/10.1016%2Fj.cub.2014.05.020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Examining the relationship between driver distraction and driving errors: A discussion of theory, studies and methods</t>
+          <t>2014_CB_Hayhoe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Modeling Task Control of Eye Movements</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Current Biology</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>task-based attention</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2011_WIR_Jensen</t>
+          <t>https://doi.org/10.2105/ajph.2013.301750</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Change blindness and inattentional blindness</t>
+          <t>2014_AJPH_Ferdinand</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wiley Interdisciplinary Reviews: Cognitive Science</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>awareness, distraction</t>
+          <t>Associations Between Driving Performance and Engaging in Secondary Tasks: A Systematic Review</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>American Journal of Public Health</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2011_VAH_Tran</t>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4001671/</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Vision for Driver Assistance: Looking at People in a Vehicle</t>
+          <t>2014_AAAM_Regan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Visual Analysis of Humans</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
+          <t>Towards an Understanding of Driver Inattention: Taxonomy and Theory</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Annals of Advances in Automotive Medicine</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>intattention, taxonomy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2011_TransRes_Underwood</t>
+          <t>https://doi.org/10.1080/15389588.2012.727510</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Driving simulator validation with hazard perception</t>
+          <t>2013_TRP_Gruber</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Transportation Research Part F</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>validation</t>
+          <t>Vision and Night Driving Abilities of Elderly Drivers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Traffic Injury Prevention</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>age, visibility</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2011_TIES_Salmon</t>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/811548.pdf</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Situation awareness on the road: review, theoretical and methodological issues, and future directions</t>
+          <t>2013_TR_Lee_1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Theoretical Issues in Ergonomics Science</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>awareness</t>
+          <t>Distraction Detection Algorithm Evaluation</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NHTSA</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2011_T-ITS_Dong</t>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/811547a.pdf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Driver Inattention Monitoring System for Intelligent Vehicles: A Review</t>
+          <t>2013_TR_Lee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>driver monitoring, distraction, drowsiness</t>
+          <t>Distraction Detection and Mitigation Through Driver Feedback</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Technical Report</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2011_JoV_Strasburger</t>
+          <t>https://doi.org/10.1109/ICCVW.2013.85</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Peripheral vision and pattern recognition: A review</t>
+          <t>2013_ICCVW_Kang</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Various Approaches for Driver and Driving Behavior Monitoring: A Review</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ICCVW</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2011_ITSC_Doshi</t>
+          <t>https://doi.org/10.1016/j.aap.2013.02.008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tactical Driver Behavior Prediction and Intent Inference: A Review</t>
+          <t>2013_AccidentAnalysis_Taylor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ITSC</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>driver monitoring, action prediction</t>
+          <t>The view from the road: The contribution of on-road glance-monitoring technologies to understanding driver behavior</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Accident Analysis and Prevention</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2011_HandbookTrafficPsych_Crundall</t>
+          <t>https://doi.org/10.1016/j.visres.2012.08.019</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Visual Attention While Driving: Measures of Eye Movements Used in Driving Research</t>
+          <t>2012_VR_Traschulz</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Handbook of Traffic Psychology</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>gaze measures</t>
+          <t>Speed change detection in foveal and peripheral vision</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vision Research</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2011_AccidentAnalysis_Regan</t>
+          <t>https://doi.org/10.1016/j.ssci.2011.07.008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Driver distraction and driver inattention: Definition, relationship and taxonomy</t>
+          <t>2012_SafetyScience_Young</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Accident Analysis and Prevention</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>intattention, taxonomy</t>
+          <t>Examining the relationship between driver distraction and driving errors: A discussion of theory, studies and methods</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Safety Science</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2010_VisionResearch_Owsley</t>
+          <t>https://doi.org/10.1002/wcs.130</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vision and driving</t>
+          <t>2011_WIR_Jensen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>visual capabilities</t>
+          <t>Change blindness and inattentional blindness</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wiley Interdisciplinary Reviews: Cognitive Science</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>awareness, distraction</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2010_TransApplPerc_Frintrop</t>
+          <t>https://doi.org/10.1007/978-0-85729-997-0_30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Computational Visual Attention Systems and Their Cognitive Foundations: A Survey</t>
+          <t>2011_VAH_Tran</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ACM Transactions on Applied Perception</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
+          <t>Vision for Driver Assistance: Looking at People in a Vehicle</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Visual Analysis of Humans</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2010_HumanFactors_Parasuraman</t>
+          <t>https://doi.org/10.1016/j.trf.2011.04.008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Complacency and Bias in Human Use of Automation: An Attentional Integration</t>
+          <t>2011_TransRes_Underwood</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Human Factors</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>automation, trust</t>
+          <t>Driving simulator validation with hazard perception</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Transportation Research Part F</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>validation</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2010_Ergonomics_Collet1</t>
+          <t>https://doi.org/10.1080/1463922X.2010.539289</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Phoning while driving I: a review of epidemiological, psychological, behavioural and physiological studies</t>
+          <t>2011_TIES_Salmon</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ergonomics</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Situation awareness on the road: review, theoretical and methodological issues, and future directions</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Theoretical Issues in Ergonomics Science</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>awareness</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2010_Ergonomics_Collet</t>
+          <t>https://doi.org/10.1109/TITS.2010.2092770</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Phoning while driving II: a review of driving conditions influence</t>
+          <t>2011_T-ITS_Dong</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ergonomics</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Driver Inattention Monitoring System for Intelligent Vehicles: A Review</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>driver monitoring, distraction, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2010_CurrOpNeurobiology_Boudoost</t>
+          <t>https://doi.org/10.1167/11.5.13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Top-down control of visual attention</t>
+          <t>2011_JoV_Strasburger</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Current Opinion in Neurobiology</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>task-based attention</t>
+          <t>Peripheral vision and pattern recognition: A review</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Journal of Vision</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2010_ActaPsych_Theeuwes</t>
+          <t>https://doi.org/10.1109/ITSC.2011.6083128</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Top–down and bottom–up control of visual selection</t>
+          <t>2011_ITSC_Doshi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Acta Psychologica</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
+          <t>Tactical Driver Behavior Prediction and Intent Inference: A Review</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ITSC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>driver monitoring, action prediction</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2009_JoV_Hansen</t>
+          <t>https://doi.org/10.1016/B978-0-12-381984-0.10011-6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Color perception in the intermediate periphery of the visual field</t>
+          <t>2011_HandbookTrafficPsych_Crundall</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Journal of Vision</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Visual Attention While Driving: Measures of Eye Movements Used in Driving Research</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Handbook of Traffic Psychology</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>gaze measures</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2009_DriverDistraction_Victor</t>
+          <t>https://doi.org/10.1016/j.aap.2011.04.008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Distraction Assessment Methods Based on Visual Behavior and Event Detection</t>
+          <t>2011_AccidentAnalysis_Regan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Driver Distraction: Theory, Effects, and Mitigation</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>Driver distraction and driver inattention: Definition, relationship and taxonomy</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Accident Analysis and Prevention</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>intattention, taxonomy</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2009_CurrentBiology_Levi</t>
+          <t>https://doi.org/10.1016/j.visres.2010.05.021</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Crowding in peripheral vision: why bigger is better</t>
+          <t>2010_VisionResearch_Owsley</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Current Biology</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Vision and driving</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Vision Research</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>visual capabilities</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2008_TR_Ranney</t>
+          <t>https://doi.org/10.1145/1658349.1658355</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Driver Distraction: A Review of the Current State-of-Knowledge</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>distraction</t>
+          <t>2010_TransApplPerc_Frintrop</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Computational Visual Attention Systems and Their Cognitive Foundations: A Survey</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ACM Transactions on Applied Perception</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>visual attention mechanisms</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2007_T-ITS_Trivedi</t>
+          <t>https://doi.org/10.1177%2F0018720810376055</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Looking-In and Looking-Out of a Vehicle: Computer-Vision-Based Enhanced Vehicle Safety</t>
+          <t>2010_HumanFactors_Parasuraman</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>T-ITS</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>driver monitoring</t>
+          <t>Complacency and Bias in Human Use of Automation: An Attentional Integration</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Human Factors</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>automation, trust</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2007_DistractedDriving_Young</t>
+          <t>https://doi.org/10.1080/00140131003672023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Driver distraction: A review of the literature</t>
+          <t>2010_Ergonomics_Collet1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Distracted driving</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E74" t="inlineStr">
+          <t>Phoning while driving I: a review of epidemiological, psychological, behavioural and physiological studies</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ergonomics</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>distraction</t>
         </is>
@@ -2284,298 +2658,358 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2007_AnnRevNeurosci_Knudsen</t>
+          <t>https://doi.org/10.1080/00140131003769092</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fundamental Components of Attention</t>
+          <t>2010_Ergonomics_Collet</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Annual Review Neuroscience</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>visual attention mechanisms</t>
+          <t>Phoning while driving II: a review of driving conditions influence</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ergonomics</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2006_WCICA_Wang</t>
+          <t>https://doi.org/10.1016/j.conb.2010.02.003</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Driver Fatigue Detection: A Survey</t>
+          <t>2010_CurrOpNeurobiology_Boudoost</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>World Congress on Intelligent Control</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>driver monitoring, drowsiness</t>
+          <t>Top-down control of visual attention</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Current Opinion in Neurobiology</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>task-based attention</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2005_EBR_Brown</t>
+          <t>https://doi.org/10.1016/j.actpsy.2010.02.006</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Peripheral vision for perception and action</t>
+          <t>2010_ActaPsych_Theeuwes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Experimental Brain Research</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Top–down and bottom–up control of visual selection</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Acta Psychologica</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>visual attention mechanisms</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2004_Horswill.doc</t>
+          <t>https://doi.org/10.1167/9.4.26</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Driver’s Hazard Perception Ability: Situation Awareness on the Road</t>
+          <t>2009_JoV_Hansen</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cognitive Approach to Situation Awareness</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>hazard perception</t>
+          <t>Color perception in the intermediate periphery of the visual field</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Journal of Vision</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2002_Green</t>
+          <t>https://www.researchgate.net/profile/Joanne-Harbluk/publication/279240334_Distraction_Assessment_Methods_Based_on_Visual_Behavior_and_Event_Detection/links/5b2c01480f7e9b0df5ba4be8/Distraction-Assessment-Methods-Based-on-Visual-Behavior-and-Event-Detection.pdf</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Where do Drivers Look While Driving (and for How Long)?</t>
+          <t>2009_DriverDistraction_Victor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Human Factors in Traffic Safety</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>gaze measures</t>
+          <t>Distraction Assessment Methods Based on Visual Behavior and Event Detection</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Driver Distraction: Theory, Effects, and Mitigation</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2000_RAS_Bertozzi</t>
+          <t>https://doi.org/10.1016/j.cub.2009.09.056</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vision-based intelligent vehicles: State of the art and perspectives</t>
+          <t>2009_CurrentBiology_Levi</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Robotics and Autonomous Systems</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>automation</t>
+          <t>Crowding in peripheral vision: why bigger is better</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Current Biology</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1999_JSafRes_Deery</t>
+          <t>https://www.nhtsa.gov/sites/nhtsa.gov/files/810787_0.pdf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hazard and Risk Perception among Young Novice Drivers</t>
+          <t>2008_TR_Ranney</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Journal of Safety Research</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>driving experience, hazard perception</t>
+          <t>Driver Distraction: A Review of the Current State-of-Knowledge</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Technical Report</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1998_Elsevier_Crundall</t>
+          <t>https://doi.org/10.1109/TITS.2006.889442</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>How Much Do Novice Drivers See? The Effects of Demand on Visual Search Strategies in Novice and Experienced Drivers</t>
+          <t>2007_T-ITS_Trivedi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eye guidance in reading and scene perception</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>driving experience</t>
+          <t>Looking-In and Looking-Out of a Vehicle: Computer-Vision-Based Enhanced Vehicle Safety</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>T-ITS</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>driver monitoring</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1992_PsychBulletin_Christianson</t>
+          <t>https://www.monash.edu/__data/assets/pdf_file/0007/217177/Driver-distraction-a-review-of-the-literature.pdf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Emotional Stress and Eyewitness Memory: A Critical Review</t>
+          <t>2007_DistractedDriving_Young</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Psychological Bulletin</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>emotion</t>
+          <t>Driver distraction: A review of the literature</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Distracted driving</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>distraction</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1992_PP_Warren</t>
+          <t>https://doi.org/10.1146/annurev.neuro.30.051606.094256</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The role of central and peripheral vision in perceiving the direction of self-motion</t>
+          <t>2007_AnnRevNeurosci_Knudsen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Perception &amp; Psychophysics</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Fundamental Components of Attention</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Annual Review Neuroscience</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>visual attention mechanisms</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1991_JOSA_Banks</t>
+          <t>https://doi.org/10.1109/WCICA.2006.1713656</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Peripheral spatial vision: limits imposed by optics, photoreceptors, and receptor pooling</t>
+          <t>2006_WCICA_Wang</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Journal of Optical Society of America </t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1991</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Driver Fatigue Detection: A Survey</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>World Congress on Intelligent Control</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>driver monitoring, drowsiness</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1987_JOSA_Legge</t>
+          <t>https://doi.org/10.1007/s00221-005-2285-y</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Contrast discrimination in peripheral vision</t>
+          <t>2005_EBR_Brown</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Journal of Optical Society of America </t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E86" t="inlineStr">
+          <t>Peripheral vision for perception and action</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Experimental Brain Research</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>peripheral vision</t>
         </is>
@@ -2584,48 +3018,328 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1986_VR_Johnston</t>
+          <t>https://www.researchgate.net/profile/Frank_Mckenna2/publication/271767727_Drivers'_hazard_perception_ability_Situation_awareness_on_the_road/links/57b2261d08ae95f9d8f4cb38/Drivers-hazard-perception-ability-Situation-awareness-on-the-road</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Matching velocity in central and peripheral vision</t>
+          <t>2004_Horswill.doc</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vision Research</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>peripheral vision</t>
+          <t>Driver’s Hazard Perception Ability: Situation Awareness on the Road</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cognitive Approach to Situation Awareness</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>hazard perception</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>http://apps.usd.edu/coglab/schieber/docs/green2002.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2002_Green</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Where do Drivers Look While Driving (and for How Long)?</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Human Factors in Traffic Safety</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>gaze measures</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/S0921-8890(99)00125-6</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2000_RAS_Bertozzi</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Vision-based intelligent vehicles: State of the art and perspectives</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Robotics and Autonomous Systems</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>automation</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/S0022-4375(99)00018-3</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1999_JSafRes_Deery</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hazard and Risk Perception among Young Novice Drivers</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Journal of Safety Research</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>driving experience, hazard perception</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/B978-008043361-5/50019-5</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1998_Elsevier_Crundall</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>How Much Do Novice Drivers See? The Effects of Demand on Visual Search Strategies in Novice and Experienced Drivers</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Eye guidance in reading and scene perception</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>driving experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://psycnet.apa.org/doi/10.1037/0033-2909.112.2.284</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1992_PsychBulletin_Christianson</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Emotional Stress and Eyewitness Memory: A Critical Review</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Psychological Bulletin</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>emotion</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3758/bf03211640</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1992_PP_Warren</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The role of central and peripheral vision in perceiving the direction of self-motion</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Perception &amp; Psychophysics</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1992</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1364/JOSAA.8.001775</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1991_JOSA_Banks</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Peripheral spatial vision: limits imposed by optics, photoreceptors, and receptor pooling</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Journal of Optical Society of America </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1364/josaa.4.001594</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1987_JOSA_Legge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Contrast discrimination in peripheral vision</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Journal of Optical Society of America </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1987</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0042-6989(86)90044-1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1986_VR_Johnston</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Matching velocity in central and peripheral vision</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Vision Research</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1986</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>peripheral vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://trid.trb.org/view/1209910</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>1972_ARRB_Rockwell</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Eye movement analysis of visual information acquisition in driving: an overview</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>ARRB Proceedings</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="E97" t="n">
         <v>1972</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>eye trackers</t>
         </is>
